--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly Díez\Desktop\Proyectos\Material Balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d112e012383dfa69/Documentos/GitHub/material-balance/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54A1B5-AAC2-43D1-A7F2-D31E248DD13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B5DD123F-7F15-4487-8465-54B153BD4F35}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{B5DD123F-7F15-4487-8465-54B153BD4F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -131,13 +131,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,7 +155,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1998,7 +1998,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3840,7 +3840,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7459,7 +7459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7781,13 +7781,13 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>6000</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5900</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>0.2591368123886798</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5800</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>0.51815627140514442</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5700</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>0.77705842296419325</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5600</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>1.035843312452315</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5500</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1.2945109847183129</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5400</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>1.5530614840636781</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5300</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>1.8114948542326781</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>5200</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>2.069811138402228</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>5100</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>2.3280103791714768</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>5000</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>2.5860926185511119</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>4900</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>2.8440578979523989</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4800</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>3.101906258175906</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>4700</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>3.3596377393999322</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>4600</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>3.617252381168647</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>4500</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>3.874750222379868</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>4400</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>4.1321313012725396</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4300</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>4.3893956554138427</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>4200</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>4.6465433216859786</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>4100</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>4.9035743362725617</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>4000</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>5.1604887346446224</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>3900</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>5.4172865515462734</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>3800</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>5.6739678209799003</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>3700</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>5.9305325761909939</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>3600</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>6.1869808496525156</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>3500</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>6.4433126730488199</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>3400</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>6.6995280772591279</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>3300</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>6.9556270923405128</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>3200</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>7.2116097475103889</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>3100</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>7.4674760711284938</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>3000</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>7.7232260906783363</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2900</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>7.9788598327480926</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>2700</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>8.2343773230109338</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2500</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>8.4897785862047837</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2400</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>8.7450636461114364</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2300</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>9.0002325255350542</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2200</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>9.2552852462800175</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>4924</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>9.5102218291280849</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>3500</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>9.7650422938148598</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>4543</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>10.0197466590055</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>3700</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>10.27433494226972</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>4572</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>10.52880716005593</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>3550</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>10.783163327664671</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>4186</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>11.037403459221039</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>3400</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>11.29152756764644</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>3484</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>11.545535664629201</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>2950</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>11.79942776059446</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H52" s="3">
         <v>5060</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>12.05320386467287</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H53" s="3">
         <v>5040</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>12.306863984668411</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H54" s="3">
         <v>5020</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>12.560408127025079</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H55" s="3">
         <v>5000</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>12.81383629679247</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H56" s="3">
         <v>4980</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>13.06714849759026</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H57" s="3">
         <v>4960</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>13.32034473157138</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H58" s="3">
         <v>4940</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>13.573424999384081</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H59" s="3">
         <v>4920</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>13.8263893001326</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H60" s="3">
         <v>4900</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>14.07923763133649</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H61" s="3">
         <v>4880</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>14.331969988888581</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H62" s="3">
         <v>4860</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>14.584586367011431</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H63" s="3">
         <v>4840</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>14.837086758212299</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H64" s="3">
         <v>4820</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>15.089471153236429</v>
       </c>
     </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H65" s="3">
         <v>4800</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>15.34173954101883</v>
       </c>
     </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H66" s="3">
         <v>4780</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>15.59389190863412</v>
       </c>
     </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H67" s="3">
         <v>4760</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>15.84592824124476</v>
       </c>
     </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H68" s="3">
         <v>4740</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>16.097848522047268</v>
       </c>
     </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H69" s="3">
         <v>4720</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>16.349652732216541</v>
       </c>
     </row>
-    <row r="70" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H70" s="3">
         <v>4700</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>16.601340850848029</v>
       </c>
     </row>
-    <row r="71" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H71" s="3">
         <v>4680</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>16.852912854897909</v>
       </c>
     </row>
-    <row r="72" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H72" s="3">
         <v>4660</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>17.104368719120838</v>
       </c>
     </row>
-    <row r="73" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H73" s="3">
         <v>4640</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>17.35570841600552</v>
       </c>
     </row>
-    <row r="74" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H74" s="3">
         <v>4620</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>17.60693191570769</v>
       </c>
     </row>
-    <row r="75" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H75" s="3">
         <v>4600</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>17.858039185980619</v>
       </c>
     </row>
-    <row r="76" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H76" s="3">
         <v>4580</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>18.109030192102921</v>
       </c>
     </row>
-    <row r="77" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H77" s="3">
         <v>4560</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>18.35990489680351</v>
       </c>
     </row>
-    <row r="78" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H78" s="3">
         <v>4540</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>18.610663260183649</v>
       </c>
     </row>
-    <row r="79" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H79" s="3">
         <v>4520</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>18.861305239635929</v>
       </c>
     </row>
-    <row r="80" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H80" s="3">
         <v>4500</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>19.111830789759949</v>
       </c>
     </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H81" s="3">
         <v>4480</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>19.362239862274759</v>
       </c>
     </row>
-    <row r="82" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H82" s="3">
         <v>4460</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>19.612532405927549</v>
       </c>
     </row>
-    <row r="83" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H83" s="3">
         <v>4440</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>19.862708366398842</v>
       </c>
     </row>
-    <row r="84" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H84" s="3">
         <v>4420</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>20.112767686203568</v>
       </c>
     </row>
-    <row r="85" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H85" s="3">
         <v>4400</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>20.362710304588251</v>
       </c>
     </row>
-    <row r="86" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H86" s="3">
         <v>4380</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>20.612536157423669</v>
       </c>
     </row>
-    <row r="87" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H87" s="3">
         <v>4360</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>20.8622451770932</v>
       </c>
     </row>
-    <row r="88" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H88" s="3">
         <v>4340</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>21.111837292376268</v>
       </c>
     </row>
-    <row r="89" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H89" s="3">
         <v>4320</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>21.36131242832688</v>
       </c>
     </row>
-    <row r="90" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H90" s="3">
         <v>4300</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>21.61067050614686</v>
       </c>
     </row>
-    <row r="91" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H91" s="3">
         <v>4280</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>21.859911443053559</v>
       </c>
     </row>
-    <row r="92" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H92" s="3">
         <v>4260</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>22.109035152141761</v>
       </c>
     </row>
-    <row r="93" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H93" s="3">
         <v>4240</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>22.358041542239441</v>
       </c>
     </row>
-    <row r="94" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H94" s="3">
         <v>4220</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>22.606930517757089</v>
       </c>
     </row>
-    <row r="95" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H95" s="3">
         <v>4200</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>22.85570197853011</v>
       </c>
     </row>
-    <row r="96" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H96" s="3">
         <v>4180</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>23.10435581965427</v>
       </c>
     </row>
-    <row r="97" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H97" s="3">
         <v>4160</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>23.352891931313259</v>
       </c>
     </row>
-    <row r="98" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H98" s="3">
         <v>4140</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>23.601310198598529</v>
       </c>
     </row>
-    <row r="99" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H99" s="3">
         <v>4120</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>23.849610501320459</v>
       </c>
     </row>
-    <row r="100" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H100" s="3">
         <v>4100</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>24.09779271381074</v>
       </c>
     </row>
-    <row r="101" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H101" s="3">
         <v>4080</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>24.345856704715239</v>
       </c>
     </row>
-    <row r="102" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H102" s="3">
         <v>4060</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>24.59380233677685</v>
       </c>
     </row>
-    <row r="103" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H103" s="3">
         <v>4040</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>24.84162946660782</v>
       </c>
     </row>
-    <row r="104" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H104" s="3">
         <v>4020</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>25.08933794445085</v>
       </c>
     </row>
-    <row r="105" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H105" s="3">
         <v>4000</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>25.3369276139283</v>
       </c>
     </row>
-    <row r="106" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H106" s="3">
         <v>3980</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>25.58439831177887</v>
       </c>
     </row>
-    <row r="107" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H107" s="3">
         <v>3960</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>25.83174986758085</v>
       </c>
     </row>
-    <row r="108" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H108" s="3">
         <v>3940</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>26.078982103461289</v>
       </c>
     </row>
-    <row r="109" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H109" s="3">
         <v>3920</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>26.326094833789998</v>
       </c>
     </row>
-    <row r="110" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H110" s="3">
         <v>3900</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>26.573087864857719</v>
       </c>
     </row>
-    <row r="111" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H111" s="3">
         <v>3880</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>26.81996099453708</v>
       </c>
     </row>
-    <row r="112" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H112" s="3">
         <v>3860</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>27.06671401192569</v>
       </c>
     </row>
-    <row r="113" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H113" s="3">
         <v>3840</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>27.31334669696972</v>
       </c>
     </row>
-    <row r="114" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H114" s="3">
         <v>3820</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>27.559858820067159</v>
       </c>
     </row>
-    <row r="115" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H115" s="3">
         <v>3800</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>27.806250141649059</v>
       </c>
     </row>
-    <row r="116" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H116" s="3">
         <v>3780</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>28.052520411737451</v>
       </c>
     </row>
-    <row r="117" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H117" s="3">
         <v>3760</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>28.29866936947835</v>
       </c>
     </row>
-    <row r="118" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H118" s="3">
         <v>3740</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>28.54469674264811</v>
       </c>
     </row>
-    <row r="119" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H119" s="3">
         <v>3720</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>28.79060224713124</v>
       </c>
     </row>
-    <row r="120" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H120" s="3">
         <v>3700</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>29.036385586367849</v>
       </c>
     </row>
-    <row r="121" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H121" s="3">
         <v>3680</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>29.282046450768359</v>
       </c>
     </row>
-    <row r="122" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H122" s="3">
         <v>3660</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>29.527584517093231</v>
       </c>
     </row>
-    <row r="123" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H123" s="3">
         <v>3640</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>29.772999447795218</v>
       </c>
     </row>
-    <row r="124" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H124" s="3">
         <v>3620</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>30.018290890321349</v>
       </c>
     </row>
-    <row r="125" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H125" s="3">
         <v>3600</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>30.26345847637154</v>
       </c>
     </row>
-    <row r="126" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H126" s="3">
         <v>3580</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>30.508501821110809</v>
       </c>
     </row>
-    <row r="127" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H127" s="3">
         <v>3560</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>30.7534205223313</v>
       </c>
     </row>
-    <row r="128" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H128" s="3">
         <v>3540</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>30.998214159560359</v>
       </c>
     </row>
-    <row r="129" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H129" s="3">
         <v>3520</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>31.242882293110561</v>
       </c>
     </row>
-    <row r="130" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H130" s="3">
         <v>3500</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>31.487424463066731</v>
       </c>
     </row>
-    <row r="131" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H131" s="3">
         <v>3480</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>31.731840188205361</v>
       </c>
     </row>
-    <row r="132" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H132" s="3">
         <v>3460</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>31.976128964840459</v>
       </c>
     </row>
-    <row r="133" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H133" s="3">
         <v>3440</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>32.220290265590137</v>
       </c>
     </row>
-    <row r="134" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H134" s="3">
         <v>3420</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>32.464323538057037</v>
       </c>
     </row>
-    <row r="135" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H135" s="3">
         <v>3400</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>32.70822820341543</v>
       </c>
     </row>
-    <row r="136" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H136" s="3">
         <v>3380</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>32.95200365489687</v>
       </c>
     </row>
-    <row r="137" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H137" s="3">
         <v>3360</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>33.195649256165559</v>
       </c>
     </row>
-    <row r="138" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H138" s="3">
         <v>3340</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>33.439164339573701</v>
       </c>
     </row>
-    <row r="139" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H139" s="3">
         <v>3320</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>33.682548204285922</v>
       </c>
     </row>
-    <row r="140" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H140" s="3">
         <v>3300</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>33.925800114260888</v>
       </c>
     </row>
-    <row r="141" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H141" s="3">
         <v>3280</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>34.168919296076872</v>
       </c>
     </row>
-    <row r="142" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H142" s="3">
         <v>3260</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>34.41190493658651</v>
       </c>
     </row>
-    <row r="143" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H143" s="3">
         <v>3240</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>34.654756180384382</v>
       </c>
     </row>
-    <row r="144" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H144" s="3">
         <v>3220</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>34.8974721270693</v>
       </c>
     </row>
-    <row r="145" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H145" s="3">
         <v>3200</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>35.140051828280882</v>
       </c>
     </row>
-    <row r="146" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H146" s="3">
         <v>3180</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>35.382494284487763</v>
       </c>
     </row>
-    <row r="147" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H147" s="3">
         <v>3160</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>35.624798441502101</v>
       </c>
     </row>
-    <row r="148" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H148" s="3">
         <v>3140</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>35.866963186691748</v>
       </c>
     </row>
-    <row r="149" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H149" s="3">
         <v>3120</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>36.108987344858228</v>
       </c>
     </row>
-    <row r="150" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H150" s="3">
         <v>3100</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>36.350869673744398</v>
       </c>
     </row>
-    <row r="151" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H151" s="3">
         <v>3080</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>36.59260885913114</v>
       </c>
     </row>
-    <row r="152" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H152" s="3">
         <v>3060</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>36.834203509477213</v>
       </c>
     </row>
-    <row r="153" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H153" s="3">
         <v>3040</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>37.075652150050161</v>
       </c>
     </row>
-    <row r="154" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H154" s="3">
         <v>3020</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>37.316953216489097</v>
       </c>
     </row>
-    <row r="155" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H155" s="3">
         <v>3000</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>37.558105047732248</v>
       </c>
     </row>
-    <row r="156" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H156" s="3">
         <v>2980</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>37.799105878232339</v>
       </c>
     </row>
-    <row r="157" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H157" s="3">
         <v>2960</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>38.039953829371981</v>
       </c>
     </row>
-    <row r="158" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H158" s="3">
         <v>2940</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>38.280646899978713</v>
       </c>
     </row>
-    <row r="159" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H159" s="3">
         <v>2920</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>38.521182955823278</v>
       </c>
     </row>
-    <row r="160" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H160" s="3">
         <v>2900</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>38.761559717968197</v>
       </c>
     </row>
-    <row r="161" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H161" s="3">
         <v>2880</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>39.001774749811631</v>
       </c>
     </row>
-    <row r="162" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H162" s="3">
         <v>2860</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>39.241825442647581</v>
       </c>
     </row>
-    <row r="163" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H163" s="3">
         <v>2840</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>39.481708999533588</v>
       </c>
     </row>
-    <row r="164" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H164" s="3">
         <v>2820</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>39.721422417222129</v>
       </c>
     </row>
-    <row r="165" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H165" s="3">
         <v>2800</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>39.960962465870111</v>
       </c>
     </row>
-    <row r="166" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H166" s="3">
         <v>2780</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>40.200325666190068</v>
       </c>
     </row>
-    <row r="167" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H167" s="3">
         <v>2760</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>40.439508263646289</v>
       </c>
     </row>
-    <row r="168" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H168" s="3">
         <v>2740</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>40.678506199224749</v>
       </c>
     </row>
-    <row r="169" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H169" s="3">
         <v>2720</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>40.917315076216163</v>
       </c>
     </row>
-    <row r="170" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H170" s="3">
         <v>2700</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>41.155930122341303</v>
       </c>
     </row>
-    <row r="171" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H171" s="3">
         <v>2680</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>41.394346146412147</v>
       </c>
     </row>
-    <row r="172" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H172" s="3">
         <v>2660</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>41.632557488554767</v>
       </c>
     </row>
-    <row r="173" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H173" s="3">
         <v>2640</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>41.870557962810899</v>
       </c>
     </row>
-    <row r="174" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H174" s="3">
         <v>2620</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>42.108340790673751</v>
       </c>
     </row>
-    <row r="175" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H175" s="3">
         <v>2600</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>42.345898523783653</v>
       </c>
     </row>
-    <row r="176" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H176" s="3">
         <v>2580</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>42.583222953590067</v>
       </c>
     </row>
-    <row r="177" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H177" s="3">
         <v>2560</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>42.820305005251058</v>
       </c>
     </row>
-    <row r="178" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H178" s="3">
         <v>2540</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>43.057134612349827</v>
       </c>
     </row>
-    <row r="179" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H179" s="3">
         <v>2520</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>43.293700568110367</v>
       </c>
     </row>
-    <row r="180" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H180" s="3">
         <v>2500</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>43.529990347615367</v>
       </c>
     </row>
-    <row r="181" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H181" s="3">
         <v>2480</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>43.765989893968587</v>
       </c>
     </row>
-    <row r="182" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H182" s="3">
         <v>2460</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>44.001683359255267</v>
       </c>
     </row>
-    <row r="183" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H183" s="3">
         <v>2440</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>44.237052788326679</v>
       </c>
     </row>
-    <row r="184" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H184" s="3">
         <v>2420</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>44.472077729564099</v>
       </c>
     </row>
-    <row r="185" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H185" s="3">
         <v>2400</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>44.706734751404753</v>
       </c>
     </row>
-    <row r="186" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H186" s="3">
         <v>2380</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>44.706734751404753</v>
       </c>
     </row>
-    <row r="187" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H187" s="3">
         <v>2360</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>48.02781857480533</v>
       </c>
     </row>
-    <row r="188" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H188" s="3">
         <v>2340</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>51.506467884032439</v>
       </c>
     </row>
-    <row r="189" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H189" s="3">
         <v>2320</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>55.113704029121287</v>
       </c>
     </row>
-    <row r="190" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H190" s="3">
         <v>2300</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>58.829909904065673</v>
       </c>
     </row>
-    <row r="191" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H191" s="3">
         <v>2280</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>62.64074894226728</v>
       </c>
     </row>
-    <row r="192" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H192" s="3">
         <v>2260</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>66.535030842503915</v>
       </c>
     </row>
-    <row r="193" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H193" s="3">
         <v>2240</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>70.503459328501222</v>
       </c>
     </row>
-    <row r="194" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H194" s="3">
         <v>2220</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>74.537804347975367</v>
       </c>
     </row>
-    <row r="195" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H195" s="3">
         <v>2200</v>
       </c>
@@ -12512,7 +12512,7 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
